--- a/resources/experiment 1/predictions/single/LinearRegression/average time/Macroalbuminuria.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/average time/Macroalbuminuria.xlsx
@@ -466,7 +466,7 @@
         <v>30.4705934078189</v>
       </c>
       <c r="B3" t="n">
-        <v>24.23433840252728</v>
+        <v>24.23433840252729</v>
       </c>
       <c r="C3" t="n">
         <v>36.55906261634838</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.06573363337781</v>
+        <v>26.0657336333778</v>
       </c>
       <c r="B6" t="n">
         <v>20.70698078316692</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.492445406115291</v>
+        <v>1.492445406115298</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9774607584875916</v>
+        <v>0.977460758487581</v>
       </c>
       <c r="C8" t="n">
-        <v>2.481639226469337</v>
+        <v>2.481639226469333</v>
       </c>
     </row>
     <row r="9">
@@ -540,13 +540,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.484880222251606</v>
+        <v>2.484880222251613</v>
       </c>
       <c r="B10" t="n">
-        <v>1.856668108961435</v>
+        <v>1.856668108961429</v>
       </c>
       <c r="C10" t="n">
-        <v>3.673311475868733</v>
+        <v>3.673311475868729</v>
       </c>
     </row>
     <row r="11">
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.38512621886247</v>
+        <v>24.38512621886246</v>
       </c>
       <c r="B12" t="n">
-        <v>19.44816337147193</v>
+        <v>19.44816337147194</v>
       </c>
       <c r="C12" t="n">
         <v>29.68651625288505</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.97403132962623</v>
+        <v>8.974031329626234</v>
       </c>
       <c r="B13" t="n">
-        <v>7.119975936535994</v>
+        <v>7.119975936535993</v>
       </c>
       <c r="C13" t="n">
         <v>11.47633097161913</v>
@@ -587,7 +587,7 @@
         <v>11.62146849564084</v>
       </c>
       <c r="B14" t="n">
-        <v>9.192742975956552</v>
+        <v>9.192742975956548</v>
       </c>
       <c r="C14" t="n">
         <v>14.54938631172287</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34.28670228454187</v>
+        <v>34.28670228454186</v>
       </c>
       <c r="B15" t="n">
-        <v>27.35962146793301</v>
+        <v>27.35962146793302</v>
       </c>
       <c r="C15" t="n">
         <v>41.28168180360487</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.33391608958837</v>
+        <v>24.33391608958836</v>
       </c>
       <c r="B17" t="n">
         <v>19.31764792597538</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.79231382871241</v>
+        <v>26.7923138287124</v>
       </c>
       <c r="B18" t="n">
         <v>21.18447742851047</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.451709973750873</v>
+        <v>3.45170997375088</v>
       </c>
       <c r="B22" t="n">
-        <v>2.670617736687005</v>
+        <v>2.670617736687001</v>
       </c>
       <c r="C22" t="n">
         <v>4.857638756877943</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>35.18951937444852</v>
+        <v>35.18951937444851</v>
       </c>
       <c r="B23" t="n">
-        <v>28.01042678878789</v>
+        <v>28.0104267887879</v>
       </c>
       <c r="C23" t="n">
         <v>42.44764666363862</v>
@@ -741,7 +741,7 @@
         <v>17.92158017612489</v>
       </c>
       <c r="B28" t="n">
-        <v>14.25011326664564</v>
+        <v>14.25011326664565</v>
       </c>
       <c r="C28" t="n">
         <v>21.89084172552483</v>
@@ -752,7 +752,7 @@
         <v>36.14354659362925</v>
       </c>
       <c r="B29" t="n">
-        <v>28.79174755513932</v>
+        <v>28.79174755513933</v>
       </c>
       <c r="C29" t="n">
         <v>43.62830146045274</v>
@@ -763,7 +763,7 @@
         <v>23.39269140272615</v>
       </c>
       <c r="B30" t="n">
-        <v>18.56895602099808</v>
+        <v>18.56895602099809</v>
       </c>
       <c r="C30" t="n">
         <v>28.49484400348565</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.62903367950452</v>
+        <v>10.62903367950453</v>
       </c>
       <c r="B31" t="n">
-        <v>8.313535625482707</v>
+        <v>8.3135356254827</v>
       </c>
       <c r="C31" t="n">
         <v>13.35771406232347</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.124752204402528</v>
+        <v>6.124752204402535</v>
       </c>
       <c r="B32" t="n">
-        <v>4.808642498855836</v>
+        <v>4.808642498855834</v>
       </c>
       <c r="C32" t="n">
         <v>7.938039065371862</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21.69928145589229</v>
+        <v>21.69928145589228</v>
       </c>
       <c r="B34" t="n">
         <v>17.27750974792896</v>
@@ -818,7 +818,7 @@
         <v>27.0453659171956</v>
       </c>
       <c r="B35" t="n">
-        <v>21.55355927226662</v>
+        <v>21.55355927226663</v>
       </c>
       <c r="C35" t="n">
         <v>32.76324407718388</v>
@@ -829,7 +829,7 @@
         <v>16.95475042462563</v>
       </c>
       <c r="B36" t="n">
-        <v>13.43616363892007</v>
+        <v>13.43616363892008</v>
       </c>
       <c r="C36" t="n">
         <v>20.70651444451562</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>31.58805498925317</v>
+        <v>31.58805498925316</v>
       </c>
       <c r="B37" t="n">
         <v>25.15633898301591</v>
@@ -862,7 +862,7 @@
         <v>25.32635090572468</v>
       </c>
       <c r="B39" t="n">
-        <v>20.19685527644922</v>
+        <v>20.19685527644923</v>
       </c>
       <c r="C39" t="n">
         <v>30.86349856550408</v>
@@ -906,7 +906,7 @@
         <v>23.37988887040763</v>
       </c>
       <c r="B43" t="n">
-        <v>18.53632715962395</v>
+        <v>18.53632715962394</v>
       </c>
       <c r="C43" t="n">
         <v>28.49117151929056</v>
@@ -917,7 +917,7 @@
         <v>12.38645628793101</v>
       </c>
       <c r="B44" t="n">
-        <v>9.768126205422517</v>
+        <v>9.768126205422515</v>
       </c>
       <c r="C44" t="n">
         <v>15.26847702658855</v>
@@ -931,15 +931,15 @@
         <v>14.32553535803456</v>
       </c>
       <c r="C45" t="n">
-        <v>22.3377158706929</v>
+        <v>22.33771587069291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.675006460323781</v>
+        <v>9.675006460323782</v>
       </c>
       <c r="B46" t="n">
-        <v>7.532214859131274</v>
+        <v>7.532214859131268</v>
       </c>
       <c r="C46" t="n">
         <v>12.17705926550935</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.367329595976042</v>
+        <v>4.367329595976047</v>
       </c>
       <c r="B47" t="n">
-        <v>3.354051918916024</v>
+        <v>3.354051918916017</v>
       </c>
       <c r="C47" t="n">
         <v>6.027276101106789</v>
@@ -961,7 +961,7 @@
         <v>24.35952115422542</v>
       </c>
       <c r="B48" t="n">
-        <v>19.38290564872365</v>
+        <v>19.38290564872366</v>
       </c>
       <c r="C48" t="n">
         <v>29.67917128449486</v>
@@ -972,7 +972,7 @@
         <v>27.81035370948577</v>
       </c>
       <c r="B49" t="n">
-        <v>22.12894250173259</v>
+        <v>22.1289425017326</v>
       </c>
       <c r="C49" t="n">
         <v>33.48233479204956</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.772189370417136</v>
+        <v>8.772189370417141</v>
       </c>
       <c r="B52" t="n">
-        <v>6.881409538276392</v>
+        <v>6.881409538276389</v>
       </c>
       <c r="C52" t="n">
         <v>11.0110944054756</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34.26109721990483</v>
+        <v>34.26109721990481</v>
       </c>
       <c r="B54" t="n">
         <v>27.29436374518474</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>30.64683030239095</v>
+        <v>30.64683030239094</v>
       </c>
       <c r="B55" t="n">
         <v>24.40764707803861</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.69304634109714</v>
+        <v>10.69304634109715</v>
       </c>
       <c r="B56" t="n">
         <v>8.476679932353393</v>
@@ -1057,18 +1057,18 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.111949672084004</v>
+        <v>6.111949672084011</v>
       </c>
       <c r="B57" t="n">
-        <v>4.776013637481697</v>
+        <v>4.776013637481695</v>
       </c>
       <c r="C57" t="n">
-        <v>7.934366581176771</v>
+        <v>7.93436658117677</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31.57525245693464</v>
+        <v>31.57525245693463</v>
       </c>
       <c r="B58" t="n">
         <v>25.12371012164177</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>35.22792697140409</v>
+        <v>35.22792697140408</v>
       </c>
       <c r="B60" t="n">
         <v>28.10831337291031</v>
@@ -1104,7 +1104,7 @@
         <v>12.57549571482158</v>
       </c>
       <c r="B61" t="n">
-        <v>9.974063742307983</v>
+        <v>9.974063742307981</v>
       </c>
       <c r="C61" t="n">
         <v>15.73004110853699</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>15.24853794547323</v>
+        <v>15.24853794547324</v>
       </c>
       <c r="B62" t="n">
         <v>12.11208850447681</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14.48355015318306</v>
+        <v>14.48355015318307</v>
       </c>
       <c r="B63" t="n">
         <v>11.53670527501085</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.145119920584738</v>
+        <v>5.145119920584744</v>
       </c>
       <c r="B65" t="n">
-        <v>3.962064009756128</v>
+        <v>3.962064009756125</v>
       </c>
       <c r="C65" t="n">
         <v>6.750039300167558</v>
@@ -1159,7 +1159,7 @@
         <v>20.77085930134859</v>
       </c>
       <c r="B66" t="n">
-        <v>16.5614467043258</v>
+        <v>16.56144670432581</v>
       </c>
       <c r="C66" t="n">
         <v>25.4291336317721</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>29.71840814784726</v>
+        <v>29.71840814784725</v>
       </c>
       <c r="B68" t="n">
-        <v>23.69158403443545</v>
+        <v>23.69158403443546</v>
       </c>
       <c r="C68" t="n">
         <v>35.8436443856778</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.405737192931616</v>
+        <v>4.405737192931621</v>
       </c>
       <c r="B69" t="n">
-        <v>3.451938503038436</v>
+        <v>3.451938503038434</v>
       </c>
       <c r="C69" t="n">
         <v>6.038293553692064</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28.71317079939242</v>
+        <v>28.71317079939241</v>
       </c>
       <c r="B70" t="n">
         <v>22.77974782258747</v>
